--- a/_inc/rPi Image Calc.xlsx
+++ b/_inc/rPi Image Calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3561bc190766037/Documents/GitHub/es-theme-lcars-p42/lcars-p42/_inc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3561bc190766037/Documents/GitHub/es-theme-lcars-p42/_inc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{AF55BB7B-F6E1-424F-9789-2028D2B6E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBC17B21-DCC7-4CB0-8DB7-58BFF2AE10B2}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{AF55BB7B-F6E1-424F-9789-2028D2B6E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE4DC03-2118-40B1-879E-F7603AB8773A}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="1050" windowWidth="25815" windowHeight="13740" activeTab="2" xr2:uid="{A86ACF5D-6064-4CD1-A4E0-684510D1610D}"/>
+    <workbookView xWindow="1770" yWindow="600" windowWidth="30825" windowHeight="14685" activeTab="2" xr2:uid="{A86ACF5D-6064-4CD1-A4E0-684510D1610D}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="247">
   <si>
     <t>offset x</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>465x777</t>
+  </si>
+  <si>
+    <t>./ti99/_inc</t>
   </si>
 </sst>
 </file>
@@ -989,8 +992,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}" name="Table1" displayName="Table1" ref="A1:Z69" totalsRowShown="0">
-  <autoFilter ref="A1:Z69" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}" name="Table1" displayName="Table1" ref="A1:Z70" totalsRowShown="0">
+  <autoFilter ref="A1:Z70" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z69">
     <sortCondition ref="B1:B69"/>
   </sortState>
@@ -1345,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E10464-F5E2-4F56-88E9-27E3734992E5}">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,6 +7642,97 @@
         <v>0.32777777777777778</v>
       </c>
     </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70">
+        <v>576</v>
+      </c>
+      <c r="E70" s="5">
+        <v>354</v>
+      </c>
+      <c r="F70">
+        <v>600</v>
+      </c>
+      <c r="G70">
+        <v>874</v>
+      </c>
+      <c r="H70">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="I70">
+        <v>0.1</v>
+      </c>
+      <c r="J70">
+        <v>0.3</v>
+      </c>
+      <c r="K70">
+        <v>0.72</v>
+      </c>
+      <c r="L70">
+        <v>1920</v>
+      </c>
+      <c r="M70">
+        <v>1080</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70" si="21">ROUNDDOWN(J70*L70,0)</f>
+        <v>576</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ref="O70" si="22">ROUNDDOWN(M70*K70,0)</f>
+        <v>777</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" ref="P70" si="23">IF(D70&gt;E70,"W","H")</f>
+        <v>W</v>
+      </c>
+      <c r="Q70" s="1">
+        <f>Table1[[#This Row],[Width]]/L70</f>
+        <v>0.3</v>
+      </c>
+      <c r="R70" s="1">
+        <f>Table1[[#This Row],[Height]]/M70</f>
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="S70">
+        <v>0.65</v>
+      </c>
+      <c r="T70">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="U70">
+        <f t="shared" ref="U70" si="24">S70*L70</f>
+        <v>1248</v>
+      </c>
+      <c r="V70">
+        <f t="shared" ref="V70" si="25">T70*M70</f>
+        <v>148.5</v>
+      </c>
+      <c r="W70">
+        <f>((N70-Table1[[#This Row],[Width]])/2)+U70</f>
+        <v>1248</v>
+      </c>
+      <c r="X70">
+        <f>((O70-Table1[[#This Row],[Height]])/2)+V70</f>
+        <v>360</v>
+      </c>
+      <c r="Y70" s="1">
+        <f t="shared" ref="Y70" si="26">W70/L70</f>
+        <v>0.65</v>
+      </c>
+      <c r="Z70" s="1">
+        <f t="shared" ref="Z70" si="27">X70/M70</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7649,10 +7743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14F567A-775B-434B-9794-5C158788FCD1}">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7829,19 +7923,19 @@
         <v>0.3</v>
       </c>
       <c r="W2" s="3">
-        <f>U2*L2</f>
+        <f t="shared" ref="W2:W33" si="0">U2*L2</f>
         <v>412.8</v>
       </c>
       <c r="X2" s="3">
-        <f>V2*M2</f>
+        <f t="shared" ref="X2:X33" si="1">V2*M2</f>
         <v>324</v>
       </c>
       <c r="Y2" s="3">
-        <f t="shared" ref="Y2:Y7" si="0">((N2-Q2)/2)+W2</f>
+        <f t="shared" ref="Y2:Y7" si="2">((N2-Q2)/2)+W2</f>
         <v>412.8</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" ref="Z2:Z7" si="1">((O2-R2)/2)+X2</f>
+        <f t="shared" ref="Z2:Z7" si="3">((O2-R2)/2)+X2</f>
         <v>563.00518230677915</v>
       </c>
       <c r="AA2" s="7">
@@ -7870,11 +7964,11 @@
         <v>116.145</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F67" si="2">J3*L3</f>
+        <f t="shared" ref="F3:F67" si="4">J3*L3</f>
         <v>672</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G67" si="3">K3*M3</f>
+        <f t="shared" ref="G3:G67" si="5">K3*M3</f>
         <v>594</v>
       </c>
       <c r="H3">
@@ -7896,31 +7990,31 @@
         <v>1080</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N67" si="4">L3*J3</f>
+        <f t="shared" ref="N3:N67" si="6">L3*J3</f>
         <v>672</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O67" si="5">M3*K3</f>
+        <f t="shared" ref="O3:O67" si="7">M3*K3</f>
         <v>594</v>
       </c>
       <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P67" si="6">IF((D3/F3)&gt;(E3/G3),"W","H")</f>
+        <f t="shared" ref="P3:P67" si="8">IF((D3/F3)&gt;(E3/G3),"W","H")</f>
         <v>W</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Q67" si="7">IF(P3="W",N3,D3*(O3/E3))</f>
+        <f t="shared" ref="Q3:Q67" si="9">IF(P3="W",N3,D3*(O3/E3))</f>
         <v>672</v>
       </c>
       <c r="R3" s="9">
-        <f t="shared" ref="R3:R67" si="8">IF(P3="W",E3*(N3/D3),O3)</f>
+        <f t="shared" ref="R3:R67" si="10">IF(P3="W",E3*(N3/D3),O3)</f>
         <v>137.18660852232881</v>
       </c>
       <c r="S3" s="7">
-        <f t="shared" ref="S3:S67" si="9">Q3/L3</f>
+        <f t="shared" ref="S3:S67" si="11">Q3/L3</f>
         <v>0.35</v>
       </c>
       <c r="T3" s="7">
-        <f t="shared" ref="T3:T67" si="10">R3/M3</f>
+        <f t="shared" ref="T3:T67" si="12">R3/M3</f>
         <v>0.12702463752067483</v>
       </c>
       <c r="U3" s="3">
@@ -7930,27 +8024,27 @@
         <v>0.3</v>
       </c>
       <c r="W3" s="3">
-        <f>U3*L3</f>
-        <v>412.8</v>
-      </c>
-      <c r="X3" s="3">
-        <f>V3*M3</f>
-        <v>324</v>
-      </c>
-      <c r="Y3" s="3">
         <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
+      <c r="X3" s="3">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="2"/>
+        <v>412.8</v>
+      </c>
       <c r="Z3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>552.40669573883565</v>
       </c>
       <c r="AA3" s="7">
-        <f t="shared" ref="AA3:AA67" si="11">Y3/L3</f>
+        <f t="shared" ref="AA3:AA67" si="13">Y3/L3</f>
         <v>0.215</v>
       </c>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AB67" si="12">Z3/M3</f>
+        <f t="shared" ref="AB3:AB67" si="14">Z3/M3</f>
         <v>0.51148768123966259</v>
       </c>
     </row>
@@ -7971,11 +8065,11 @@
         <v>128.21100000000001</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H4">
@@ -7997,31 +8091,31 @@
         <v>1080</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P4" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R4" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>151.97280788246854</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14071556285413753</v>
       </c>
       <c r="U4" s="3">
@@ -8031,27 +8125,27 @@
         <v>0.3</v>
       </c>
       <c r="W4" s="3">
-        <f>U4*L4</f>
-        <v>412.8</v>
-      </c>
-      <c r="X4" s="3">
-        <f>V4*M4</f>
-        <v>324</v>
-      </c>
-      <c r="Y4" s="3">
         <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
+      <c r="X4" s="3">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="2"/>
+        <v>412.8</v>
+      </c>
       <c r="Z4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>545.01359605876576</v>
       </c>
       <c r="AA4" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB4" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50464221857293123</v>
       </c>
     </row>
@@ -8072,11 +8166,11 @@
         <v>257.47000000000003</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H5">
@@ -8098,31 +8192,31 @@
         <v>1080</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P5" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>193.05509807859679</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T5" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17875472044314517</v>
       </c>
       <c r="U5" s="3">
@@ -8132,27 +8226,27 @@
         <v>0.3</v>
       </c>
       <c r="W5" s="3">
-        <f>U5*L5</f>
-        <v>412.8</v>
-      </c>
-      <c r="X5" s="3">
-        <f>V5*M5</f>
-        <v>324</v>
-      </c>
-      <c r="Y5" s="3">
         <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
+      <c r="X5" s="3">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="2"/>
+        <v>412.8</v>
+      </c>
       <c r="Z5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>524.47245096070162</v>
       </c>
       <c r="AA5" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB5" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.4856226397784274</v>
       </c>
     </row>
@@ -8173,11 +8267,11 @@
         <v>280</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H6">
@@ -8199,31 +8293,31 @@
         <v>1080</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P6" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>235.2</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T6" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.21777777777777776</v>
       </c>
       <c r="U6" s="3">
@@ -8233,27 +8327,27 @@
         <v>0.3</v>
       </c>
       <c r="W6" s="3">
-        <f>U6*L6</f>
-        <v>412.8</v>
-      </c>
-      <c r="X6" s="3">
-        <f>V6*M6</f>
-        <v>324</v>
-      </c>
-      <c r="Y6" s="3">
         <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
+      <c r="X6" s="3">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="2"/>
+        <v>412.8</v>
+      </c>
       <c r="Z6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>503.4</v>
       </c>
       <c r="AA6" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB6" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.46611111111111109</v>
       </c>
     </row>
@@ -8274,11 +8368,11 @@
         <v>129.21</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H7">
@@ -8300,31 +8394,31 @@
         <v>1080</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P7" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>153.15695616205909</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14181199644635101</v>
       </c>
       <c r="U7" s="3">
@@ -8334,27 +8428,27 @@
         <v>0.3</v>
       </c>
       <c r="W7" s="3">
-        <f>U7*L7</f>
-        <v>412.8</v>
-      </c>
-      <c r="X7" s="3">
-        <f>V7*M7</f>
-        <v>324</v>
-      </c>
-      <c r="Y7" s="3">
         <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
+      <c r="X7" s="3">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="2"/>
+        <v>412.8</v>
+      </c>
       <c r="Z7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>544.42152191897048</v>
       </c>
       <c r="AA7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50409400177682451</v>
       </c>
     </row>
@@ -8375,11 +8469,11 @@
         <v>121.752</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H8">
@@ -8401,31 +8495,31 @@
         <v>1080</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P8" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>144.31801087976521</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13362778785163446</v>
       </c>
       <c r="U8" s="3">
@@ -8435,11 +8529,11 @@
         <v>0.3</v>
       </c>
       <c r="W8" s="3">
-        <f>U8*L8</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X8" s="3">
-        <f>V8*M8</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y8" s="3">
@@ -8451,11 +8545,11 @@
         <v>548.84099456011745</v>
       </c>
       <c r="AA8" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB8" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5081861060741828</v>
       </c>
     </row>
@@ -8476,11 +8570,11 @@
         <v>72.563000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H9">
@@ -8502,31 +8596,31 @@
         <v>1080</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P9" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>134.45818374336153</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12449831828089031</v>
       </c>
       <c r="U9" s="3">
@@ -8536,27 +8630,27 @@
         <v>0.3</v>
       </c>
       <c r="W9" s="3">
-        <f>U9*L9</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X9" s="3">
-        <f>V9*M9</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" ref="Y9:Y24" si="13">((N9-Q9)/2)+W9</f>
+        <f t="shared" ref="Y9:Y24" si="15">((N9-Q9)/2)+W9</f>
         <v>412.8</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9:Z24" si="14">((O9-R9)/2)+X9</f>
+        <f t="shared" ref="Z9:Z24" si="16">((O9-R9)/2)+X9</f>
         <v>553.77090812831921</v>
       </c>
       <c r="AA9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB9" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5127508408595548</v>
       </c>
     </row>
@@ -8577,11 +8671,11 @@
         <v>79.218999999999994</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H10">
@@ -8603,31 +8697,31 @@
         <v>1080</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P10" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>93.900943504389431</v>
       </c>
       <c r="S10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.6945318059619844E-2</v>
       </c>
       <c r="U10" s="3">
@@ -8637,27 +8731,27 @@
         <v>0.3</v>
       </c>
       <c r="W10" s="3">
-        <f>U10*L10</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X10" s="3">
-        <f>V10*M10</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y10" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="16"/>
+        <v>574.04952824780526</v>
+      </c>
+      <c r="AA10" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z10" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB10" s="8">
         <f t="shared" si="14"/>
-        <v>574.04952824780526</v>
-      </c>
-      <c r="AA10" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB10" s="8">
-        <f t="shared" si="12"/>
         <v>0.53152734097019005</v>
       </c>
     </row>
@@ -8678,11 +8772,11 @@
         <v>60.445</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H11">
@@ -8704,31 +8798,31 @@
         <v>1080</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P11" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>71.615783349201322</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.6310910508519741E-2</v>
       </c>
       <c r="U11" s="3">
@@ -8738,27 +8832,27 @@
         <v>0.3</v>
       </c>
       <c r="W11" s="3">
-        <f>U11*L11</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X11" s="3">
-        <f>V11*M11</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y11" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="16"/>
+        <v>585.19210832539932</v>
+      </c>
+      <c r="AA11" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z11" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB11" s="8">
         <f t="shared" si="14"/>
-        <v>585.19210832539932</v>
-      </c>
-      <c r="AA11" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB11" s="8">
-        <f t="shared" si="12"/>
         <v>0.54184454474574006</v>
       </c>
     </row>
@@ -8779,11 +8873,11 @@
         <v>104.51</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H12">
@@ -8805,31 +8899,31 @@
         <v>1080</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P12" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>123.87921591592598</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.11470297769993147</v>
       </c>
       <c r="U12" s="3">
@@ -8839,27 +8933,27 @@
         <v>0.3</v>
       </c>
       <c r="W12" s="3">
-        <f>U12*L12</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X12" s="3">
-        <f>V12*M12</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y12" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="16"/>
+        <v>559.06039204203694</v>
+      </c>
+      <c r="AA12" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z12" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB12" s="8">
         <f t="shared" si="14"/>
-        <v>559.06039204203694</v>
-      </c>
-      <c r="AA12" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB12" s="8">
-        <f t="shared" si="12"/>
         <v>0.51764851115003419</v>
       </c>
     </row>
@@ -8880,11 +8974,11 @@
         <v>92.933999999999997</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H13">
@@ -8906,31 +9000,31 @@
         <v>1080</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P13" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>110.15779400947913</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10199795741618438</v>
       </c>
       <c r="U13" s="3">
@@ -8940,27 +9034,27 @@
         <v>0.3</v>
       </c>
       <c r="W13" s="3">
-        <f>U13*L13</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X13" s="3">
-        <f>V13*M13</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y13" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="16"/>
+        <v>565.92110299526041</v>
+      </c>
+      <c r="AA13" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z13" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB13" s="8">
         <f t="shared" si="14"/>
-        <v>565.92110299526041</v>
-      </c>
-      <c r="AA13" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB13" s="8">
-        <f t="shared" si="12"/>
         <v>0.52400102129190784</v>
       </c>
     </row>
@@ -8981,11 +9075,11 @@
         <v>168.614</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H14">
@@ -9007,31 +9101,31 @@
         <v>1080</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P14" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>199.86630965106309</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T14" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18506139782505843</v>
       </c>
       <c r="U14" s="3">
@@ -9041,27 +9135,27 @@
         <v>0.3</v>
       </c>
       <c r="W14" s="3">
-        <f>U14*L14</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X14" s="3">
-        <f>V14*M14</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y14" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="16"/>
+        <v>521.06684517446843</v>
+      </c>
+      <c r="AA14" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z14" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB14" s="8">
         <f t="shared" si="14"/>
-        <v>521.06684517446843</v>
-      </c>
-      <c r="AA14" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB14" s="8">
-        <f t="shared" si="12"/>
         <v>0.48246930108747077</v>
       </c>
     </row>
@@ -9082,11 +9176,11 @@
         <v>7.609</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H15">
@@ -9108,31 +9202,31 @@
         <v>1080</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P15" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.166654867256636</v>
       </c>
       <c r="S15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T15" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7932087840052442E-2</v>
       </c>
       <c r="U15" s="3">
@@ -9142,27 +9236,27 @@
         <v>0.3</v>
       </c>
       <c r="W15" s="3">
-        <f>U15*L15</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X15" s="3">
-        <f>V15*M15</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y15" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="16"/>
+        <v>605.91667256637174</v>
+      </c>
+      <c r="AA15" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z15" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB15" s="8">
         <f t="shared" si="14"/>
-        <v>605.91667256637174</v>
-      </c>
-      <c r="AA15" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB15" s="8">
-        <f t="shared" si="12"/>
         <v>0.56103395607997386</v>
       </c>
     </row>
@@ -9183,11 +9277,11 @@
         <v>41.963000000000001</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H16">
@@ -9209,31 +9303,31 @@
         <v>1080</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>79.957853547884028</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.4035049581374093E-2</v>
       </c>
       <c r="U16" s="3">
@@ -9243,27 +9337,27 @@
         <v>0.3</v>
       </c>
       <c r="W16" s="3">
-        <f>U16*L16</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X16" s="3">
-        <f>V16*M16</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y16" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="16"/>
+        <v>581.02107322605798</v>
+      </c>
+      <c r="AA16" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z16" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB16" s="8">
         <f t="shared" si="14"/>
-        <v>581.02107322605798</v>
-      </c>
-      <c r="AA16" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB16" s="8">
-        <f t="shared" si="12"/>
         <v>0.53798247520931297</v>
       </c>
     </row>
@@ -9284,11 +9378,11 @@
         <v>1024</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H17">
@@ -9310,31 +9404,31 @@
         <v>1080</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>123.05579399141631</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.11394054999205214</v>
       </c>
       <c r="U17" s="3">
@@ -9344,27 +9438,27 @@
         <v>0.3</v>
       </c>
       <c r="W17" s="3">
-        <f>U17*L17</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X17" s="3">
-        <f>V17*M17</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y17" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="16"/>
+        <v>559.47210300429185</v>
+      </c>
+      <c r="AA17" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z17" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB17" s="8">
         <f t="shared" si="14"/>
-        <v>559.47210300429185</v>
-      </c>
-      <c r="AA17" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB17" s="8">
-        <f t="shared" si="12"/>
         <v>0.51802972500397393</v>
       </c>
     </row>
@@ -9385,11 +9479,11 @@
         <v>116.145</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H18">
@@ -9411,31 +9505,31 @@
         <v>1080</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>137.18660852232881</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12702463752067483</v>
       </c>
       <c r="U18" s="3">
@@ -9445,27 +9539,27 @@
         <v>0.3</v>
       </c>
       <c r="W18" s="3">
-        <f>U18*L18</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X18" s="3">
-        <f>V18*M18</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y18" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="16"/>
+        <v>552.40669573883565</v>
+      </c>
+      <c r="AA18" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z18" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB18" s="8">
         <f t="shared" si="14"/>
-        <v>552.40669573883565</v>
-      </c>
-      <c r="AA18" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB18" s="8">
-        <f t="shared" si="12"/>
         <v>0.51148768123966259</v>
       </c>
     </row>
@@ -9486,11 +9580,11 @@
         <v>70.468000000000004</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H19">
@@ -9512,31 +9606,31 @@
         <v>1080</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>137.80263065999301</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12759502838888243</v>
       </c>
       <c r="U19" s="3">
@@ -9546,27 +9640,27 @@
         <v>0.3</v>
       </c>
       <c r="W19" s="3">
-        <f>U19*L19</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X19" s="3">
-        <f>V19*M19</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y19" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="16"/>
+        <v>552.09868467000342</v>
+      </c>
+      <c r="AA19" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z19" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB19" s="8">
         <f t="shared" si="14"/>
-        <v>552.09868467000342</v>
-      </c>
-      <c r="AA19" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB19" s="8">
-        <f t="shared" si="12"/>
         <v>0.51120248580555872</v>
       </c>
     </row>
@@ -9587,11 +9681,11 @@
         <v>178.654</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H20">
@@ -9613,31 +9707,31 @@
         <v>1080</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P20" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>211.76459133330627</v>
       </c>
       <c r="S20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T20" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.19607832530861691</v>
       </c>
       <c r="U20" s="3">
@@ -9647,27 +9741,27 @@
         <v>0.3</v>
       </c>
       <c r="W20" s="3">
-        <f>U20*L20</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X20" s="3">
-        <f>V20*M20</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y20" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="16"/>
+        <v>515.11770433334686</v>
+      </c>
+      <c r="AA20" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z20" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB20" s="8">
         <f t="shared" si="14"/>
-        <v>515.11770433334686</v>
-      </c>
-      <c r="AA20" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB20" s="8">
-        <f t="shared" si="12"/>
         <v>0.47696083734569156</v>
       </c>
     </row>
@@ -9688,11 +9782,11 @@
         <v>129.21</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H21">
@@ -9714,31 +9808,31 @@
         <v>1080</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>153.15695616205909</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14181199644635101</v>
       </c>
       <c r="U21" s="3">
@@ -9748,27 +9842,27 @@
         <v>0.3</v>
       </c>
       <c r="W21" s="3">
-        <f>U21*L21</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X21" s="3">
-        <f>V21*M21</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y21" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="16"/>
+        <v>544.42152191897048</v>
+      </c>
+      <c r="AA21" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z21" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB21" s="8">
         <f t="shared" si="14"/>
-        <v>544.42152191897048</v>
-      </c>
-      <c r="AA21" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB21" s="8">
-        <f t="shared" si="12"/>
         <v>0.50409400177682451</v>
       </c>
     </row>
@@ -9789,11 +9883,11 @@
         <v>81</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H22">
@@ -9815,31 +9909,31 @@
         <v>1080</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97.330596804354983</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.0120922966995351E-2</v>
       </c>
       <c r="U22" s="3">
@@ -9849,27 +9943,27 @@
         <v>0.3</v>
       </c>
       <c r="W22" s="3">
-        <f>U22*L22</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X22" s="3">
-        <f>V22*M22</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y22" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="16"/>
+        <v>572.33470159782246</v>
+      </c>
+      <c r="AA22" s="7">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z22" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB22" s="8">
         <f t="shared" si="14"/>
-        <v>572.33470159782246</v>
-      </c>
-      <c r="AA22" s="7">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB22" s="8">
-        <f t="shared" si="12"/>
         <v>0.52993953851650233</v>
       </c>
     </row>
@@ -9890,11 +9984,11 @@
         <v>414.15800000000002</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H23">
@@ -9916,31 +10010,31 @@
         <v>1080</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>490.91539857724689</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.45455129497893232</v>
       </c>
       <c r="U23" s="3">
@@ -9950,27 +10044,27 @@
         <v>0.3</v>
       </c>
       <c r="W23" s="3">
-        <f>U23*L23</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X23" s="3">
-        <f>V23*M23</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y23" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="16"/>
+        <v>375.54230071137658</v>
+      </c>
+      <c r="AA23" s="11">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z23" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB23" s="12">
         <f t="shared" si="14"/>
-        <v>375.54230071137658</v>
-      </c>
-      <c r="AA23" s="11">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB23" s="12">
-        <f t="shared" si="12"/>
         <v>0.34772435251053385</v>
       </c>
     </row>
@@ -9991,11 +10085,11 @@
         <v>458.92899999999997</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H24">
@@ -10017,31 +10111,31 @@
         <v>1080</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>543.98396977399284</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.50368886090184517</v>
       </c>
       <c r="U24" s="3">
@@ -10051,27 +10145,27 @@
         <v>0.3</v>
       </c>
       <c r="W24" s="3">
-        <f>U24*L24</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X24" s="3">
-        <f>V24*M24</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y24" s="3">
+        <f t="shared" si="15"/>
+        <v>412.8</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="16"/>
+        <v>349.00801511300358</v>
+      </c>
+      <c r="AA24" s="13">
         <f t="shared" si="13"/>
-        <v>412.8</v>
-      </c>
-      <c r="Z24" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="AB24" s="14">
         <f t="shared" si="14"/>
-        <v>349.00801511300358</v>
-      </c>
-      <c r="AA24" s="13">
-        <f t="shared" si="11"/>
-        <v>0.215</v>
-      </c>
-      <c r="AB24" s="14">
-        <f t="shared" si="12"/>
         <v>0.32315556954907737</v>
       </c>
     </row>
@@ -10092,11 +10186,11 @@
         <v>100.82599999999999</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H25">
@@ -10118,31 +10212,31 @@
         <v>1080</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>119.46503418824517</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.1106157723965233</v>
       </c>
       <c r="U25" s="3">
@@ -10152,27 +10246,27 @@
         <v>0.3</v>
       </c>
       <c r="W25" s="3">
-        <f>U25*L25</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X25" s="3">
-        <f>V25*M25</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" ref="Y25:Y70" si="15">((N25-Q25)/2)+W25</f>
+        <f t="shared" ref="Y25:Y70" si="17">((N25-Q25)/2)+W25</f>
         <v>412.8</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" ref="Z25:Z70" si="16">((O25-R25)/2)+X25</f>
+        <f t="shared" ref="Z25:Z70" si="18">((O25-R25)/2)+X25</f>
         <v>561.26748290587739</v>
       </c>
       <c r="AA25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5196921138017383</v>
       </c>
     </row>
@@ -10193,11 +10287,11 @@
         <v>129.21</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H26">
@@ -10219,31 +10313,31 @@
         <v>1080</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>153.15695616205909</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T26" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14181199644635101</v>
       </c>
       <c r="U26" s="3">
@@ -10253,27 +10347,27 @@
         <v>0.3</v>
       </c>
       <c r="W26" s="3">
-        <f>U26*L26</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X26" s="3">
-        <f>V26*M26</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>544.42152191897048</v>
       </c>
       <c r="AA26" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50409400177682451</v>
       </c>
     </row>
@@ -10294,11 +10388,11 @@
         <v>69.41</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H27">
@@ -10320,31 +10414,31 @@
         <v>1080</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>82.128994770482279</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.6045365528224329E-2</v>
       </c>
       <c r="U27" s="3">
@@ -10354,27 +10448,27 @@
         <v>0.3</v>
       </c>
       <c r="W27" s="3">
-        <f>U27*L27</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X27" s="3">
-        <f>V27*M27</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>579.93550261475889</v>
       </c>
       <c r="AA27" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB27" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53697731723588782</v>
       </c>
     </row>
@@ -10395,11 +10489,11 @@
         <v>66.040999999999997</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H28">
@@ -10421,31 +10515,31 @@
         <v>1080</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78.280617149590157</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.2482052916287176E-2</v>
       </c>
       <c r="U28" s="3">
@@ -10455,27 +10549,27 @@
         <v>0.3</v>
       </c>
       <c r="W28" s="3">
-        <f>U28*L28</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X28" s="3">
-        <f>V28*M28</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>581.85969142520491</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB28" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53875897354185642</v>
       </c>
     </row>
@@ -10496,11 +10590,11 @@
         <v>199</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" ref="F29" si="17">J29*L29</f>
+        <f t="shared" ref="F29" si="19">J29*L29</f>
         <v>672</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29" si="18">K29*M29</f>
+        <f t="shared" ref="G29" si="20">K29*M29</f>
         <v>594</v>
       </c>
       <c r="H29">
@@ -10522,31 +10616,31 @@
         <v>1080</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" ref="N29" si="19">L29*J29</f>
+        <f t="shared" ref="N29" si="21">L29*J29</f>
         <v>672</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" ref="O29" si="20">M29*K29</f>
+        <f t="shared" ref="O29" si="22">M29*K29</f>
         <v>594</v>
       </c>
       <c r="P29" s="3" t="str">
-        <f t="shared" ref="P29" si="21">IF((D29/F29)&gt;(E29/G29),"W","H")</f>
+        <f t="shared" ref="P29" si="23">IF((D29/F29)&gt;(E29/G29),"W","H")</f>
         <v>W</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" ref="Q29" si="22">IF(P29="W",N29,D29*(O29/E29))</f>
+        <f t="shared" ref="Q29" si="24">IF(P29="W",N29,D29*(O29/E29))</f>
         <v>672</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" ref="R29" si="23">IF(P29="W",E29*(N29/D29),O29)</f>
+        <f t="shared" ref="R29" si="25">IF(P29="W",E29*(N29/D29),O29)</f>
         <v>112.75548060708265</v>
       </c>
       <c r="S29" s="7">
-        <f t="shared" ref="S29" si="24">Q29/L29</f>
+        <f t="shared" ref="S29" si="26">Q29/L29</f>
         <v>0.35</v>
       </c>
       <c r="T29" s="7">
-        <f t="shared" ref="T29" si="25">R29/M29</f>
+        <f t="shared" ref="T29" si="27">R29/M29</f>
         <v>0.10440322278433578</v>
       </c>
       <c r="U29" s="3">
@@ -10556,27 +10650,27 @@
         <v>0.3</v>
       </c>
       <c r="W29" s="3">
-        <f>U29*L29</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X29" s="3">
-        <f>V29*M29</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" ref="Y29" si="26">((N29-Q29)/2)+W29</f>
+        <f t="shared" ref="Y29" si="28">((N29-Q29)/2)+W29</f>
         <v>412.8</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" ref="Z29" si="27">((O29-R29)/2)+X29</f>
+        <f t="shared" ref="Z29" si="29">((O29-R29)/2)+X29</f>
         <v>564.62225969645874</v>
       </c>
       <c r="AA29" s="7">
-        <f t="shared" ref="AA29" si="28">Y29/L29</f>
+        <f t="shared" ref="AA29" si="30">Y29/L29</f>
         <v>0.215</v>
       </c>
       <c r="AB29" s="8">
-        <f t="shared" ref="AB29" si="29">Z29/M29</f>
+        <f t="shared" ref="AB29" si="31">Z29/M29</f>
         <v>0.52279838860783212</v>
       </c>
     </row>
@@ -10597,11 +10691,11 @@
         <v>65.438000000000002</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H30">
@@ -10623,31 +10717,31 @@
         <v>1080</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>77.565724163476972</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T30" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.1820114966182375E-2</v>
       </c>
       <c r="U30" s="3">
@@ -10657,27 +10751,27 @@
         <v>0.3</v>
       </c>
       <c r="W30" s="3">
-        <f>U30*L30</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X30" s="3">
-        <f>V30*M30</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>582.21713791826153</v>
       </c>
       <c r="AA30" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB30" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53908994251690878</v>
       </c>
     </row>
@@ -10698,11 +10792,11 @@
         <v>124.23</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H31">
@@ -10724,31 +10818,31 @@
         <v>1080</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>147.25373502901593</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T31" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13634605095279254</v>
       </c>
       <c r="U31" s="3">
@@ -10758,27 +10852,27 @@
         <v>0.3</v>
       </c>
       <c r="W31" s="3">
-        <f>U31*L31</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X31" s="3">
-        <f>V31*M31</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>547.37313248549208</v>
       </c>
       <c r="AA31" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50682697452360381</v>
       </c>
     </row>
@@ -10799,11 +10893,11 @@
         <v>116.145</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H32">
@@ -10825,31 +10919,31 @@
         <v>1080</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>137.18660852232881</v>
       </c>
       <c r="S32" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12702463752067483</v>
       </c>
       <c r="U32" s="3">
@@ -10859,27 +10953,27 @@
         <v>0.3</v>
       </c>
       <c r="W32" s="3">
-        <f>U32*L32</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X32" s="3">
-        <f>V32*M32</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>552.40669573883565</v>
       </c>
       <c r="AA32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.51148768123966259</v>
       </c>
     </row>
@@ -10900,11 +10994,11 @@
         <v>89.334000000000003</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H33">
@@ -10926,31 +11020,31 @@
         <v>1080</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P33" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>105.89040622299051</v>
       </c>
       <c r="S33" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.8046672428694914E-2</v>
       </c>
       <c r="U33" s="3">
@@ -10960,27 +11054,27 @@
         <v>0.3</v>
       </c>
       <c r="W33" s="3">
-        <f>U33*L33</f>
+        <f t="shared" si="0"/>
         <v>412.8</v>
       </c>
       <c r="X33" s="3">
-        <f>V33*M33</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="Y33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>568.05479688850471</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB33" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52597666378565255</v>
       </c>
     </row>
@@ -11001,11 +11095,11 @@
         <v>18.864999999999998</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H34">
@@ -11027,31 +11121,31 @@
         <v>1080</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22.361279170267935</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.0704888120618457E-2</v>
       </c>
       <c r="U34" s="3">
@@ -11061,27 +11155,27 @@
         <v>0.3</v>
       </c>
       <c r="W34" s="3">
-        <f>U34*L34</f>
+        <f t="shared" ref="W34:W70" si="32">U34*L34</f>
         <v>412.8</v>
       </c>
       <c r="X34" s="3">
-        <f>V34*M34</f>
+        <f t="shared" ref="X34:X70" si="33">V34*M34</f>
         <v>324</v>
       </c>
       <c r="Y34" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>609.81936041486597</v>
       </c>
       <c r="AA34" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.56464755593969074</v>
       </c>
     </row>
@@ -11102,11 +11196,11 @@
         <v>157.78</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H35">
@@ -11128,31 +11222,31 @@
         <v>1080</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>187.0219374912908</v>
       </c>
       <c r="S35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17316846064008407</v>
       </c>
       <c r="U35" s="3">
@@ -11162,27 +11256,27 @@
         <v>0.3</v>
       </c>
       <c r="W35" s="3">
-        <f>U35*L35</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X35" s="3">
-        <f>V35*M35</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>527.48903125435459</v>
       </c>
       <c r="AA35" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB35" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.48841576967995792</v>
       </c>
     </row>
@@ -11203,11 +11297,11 @@
         <v>202.38200000000001</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H36">
@@ -11229,31 +11323,31 @@
         <v>1080</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>239.89018730740534</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T36" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.2221205438031531</v>
       </c>
       <c r="U36" s="3">
@@ -11263,27 +11357,27 @@
         <v>0.3</v>
       </c>
       <c r="W36" s="3">
-        <f>U36*L36</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X36" s="3">
-        <f>V36*M36</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y36" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z36" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>501.05490634629734</v>
       </c>
       <c r="AA36" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB36" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.46393972809842349</v>
       </c>
     </row>
@@ -11304,11 +11398,11 @@
         <v>90.32</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H37">
@@ -11330,31 +11424,31 @@
         <v>1080</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>107.05876542513035</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.9128486504750327E-2</v>
       </c>
       <c r="U37" s="3">
@@ -11364,27 +11458,27 @@
         <v>0.3</v>
       </c>
       <c r="W37" s="3">
-        <f>U37*L37</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X37" s="3">
-        <f>V37*M37</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>567.47061728743483</v>
       </c>
       <c r="AA37" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52543575674762488</v>
       </c>
     </row>
@@ -11405,11 +11499,11 @@
         <v>234.744</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H38">
@@ -11431,31 +11525,31 @@
         <v>1080</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>278.25044450088905</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.25763930046378614</v>
       </c>
       <c r="U38" s="3">
@@ -11465,27 +11559,27 @@
         <v>0.3</v>
       </c>
       <c r="W38" s="3">
-        <f>U38*L38</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X38" s="3">
-        <f>V38*M38</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y38" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>481.87477774955551</v>
       </c>
       <c r="AA38" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.44618034976810694</v>
       </c>
     </row>
@@ -11506,11 +11600,11 @@
         <v>102.84</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H39">
@@ -11532,31 +11626,31 @@
         <v>1080</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>121.89970878187569</v>
       </c>
       <c r="S39" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T39" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.11287010072395898</v>
       </c>
       <c r="U39" s="3">
@@ -11566,27 +11660,27 @@
         <v>0.3</v>
       </c>
       <c r="W39" s="3">
-        <f>U39*L39</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X39" s="3">
-        <f>V39*M39</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z39" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>560.05014560906216</v>
       </c>
       <c r="AA39" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB39" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.51856494963802047</v>
       </c>
     </row>
@@ -11607,11 +11701,11 @@
         <v>78.275000000000006</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H40">
@@ -11633,31 +11727,31 @@
         <v>1080</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92.781988573525084</v>
       </c>
       <c r="S40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T40" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.5909248679189892E-2</v>
       </c>
       <c r="U40" s="3">
@@ -11667,27 +11761,27 @@
         <v>0.3</v>
       </c>
       <c r="W40" s="3">
-        <f>U40*L40</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X40" s="3">
-        <f>V40*M40</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y40" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z40" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>574.60900571323748</v>
       </c>
       <c r="AA40" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB40" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53204537566040511</v>
       </c>
     </row>
@@ -11708,11 +11802,11 @@
         <v>309.22554544600001</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H41">
@@ -11734,31 +11828,31 @@
         <v>1080</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>H</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>621.20610686927591</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>594</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32354484732774785</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="U41" s="3">
@@ -11768,27 +11862,27 @@
         <v>0.3</v>
       </c>
       <c r="W41" s="3">
-        <f>U41*L41</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X41" s="3">
-        <f>V41*M41</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y41" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>438.19694656536205</v>
       </c>
       <c r="Z41" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>324</v>
       </c>
       <c r="AA41" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.22822757633612606</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
     </row>
@@ -11809,11 +11903,11 @@
         <v>70.521000000000001</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H42">
@@ -11835,31 +11929,31 @@
         <v>1080</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>83.590911736743053</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.7398992348836154E-2</v>
       </c>
       <c r="U42" s="3">
@@ -11869,27 +11963,27 @@
         <v>0.3</v>
       </c>
       <c r="W42" s="3">
-        <f>U42*L42</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X42" s="3">
-        <f>V42*M42</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>579.2045441316285</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53630050382558192</v>
       </c>
     </row>
@@ -11910,11 +12004,11 @@
         <v>126.123</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H43">
@@ -11936,31 +12030,31 @@
         <v>1080</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>249.16554266596896</v>
       </c>
       <c r="S43" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T43" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.23070883580182311</v>
       </c>
       <c r="U43" s="3">
@@ -11970,27 +12064,27 @@
         <v>0.3</v>
       </c>
       <c r="W43" s="3">
-        <f>U43*L43</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X43" s="3">
-        <f>V43*M43</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y43" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>496.41722866701554</v>
       </c>
       <c r="AA43" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.45964558209908846</v>
       </c>
     </row>
@@ -12011,11 +12105,11 @@
         <v>124.854</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H44">
@@ -12037,31 +12131,31 @@
         <v>1080</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>147.99416503359339</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13703163429036425</v>
       </c>
       <c r="U44" s="3">
@@ -12071,27 +12165,27 @@
         <v>0.3</v>
       </c>
       <c r="W44" s="3">
-        <f>U44*L44</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X44" s="3">
-        <f>V44*M44</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>547.0029174832033</v>
       </c>
       <c r="AA44" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50648418285481789</v>
       </c>
     </row>
@@ -12112,11 +12206,11 @@
         <v>167.46799999999999</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H45">
@@ -12138,31 +12232,31 @@
         <v>1080</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>198.50614982175833</v>
       </c>
       <c r="S45" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18380199057570215</v>
       </c>
       <c r="U45" s="3">
@@ -12172,27 +12266,27 @@
         <v>0.3</v>
       </c>
       <c r="W45" s="3">
-        <f>U45*L45</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X45" s="3">
-        <f>V45*M45</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>521.74692508912085</v>
       </c>
       <c r="AA45" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB45" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.48309900471214895</v>
       </c>
     </row>
@@ -12213,11 +12307,11 @@
         <v>86.813000000000002</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H46">
@@ -12239,31 +12333,31 @@
         <v>1080</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102.90236696305887</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.5279969410239695E-2</v>
       </c>
       <c r="U46" s="3">
@@ -12273,27 +12367,27 @@
         <v>0.3</v>
       </c>
       <c r="W46" s="3">
-        <f>U46*L46</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X46" s="3">
-        <f>V46*M46</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y46" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z46" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>569.54881651847063</v>
       </c>
       <c r="AA46" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB46" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52736001529488019</v>
       </c>
     </row>
@@ -12314,11 +12408,11 @@
         <v>180.92099999999999</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H47">
@@ -12340,31 +12434,31 @@
         <v>1080</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>214.45174263443923</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.19856642836522151</v>
       </c>
       <c r="U47" s="3">
@@ -12374,27 +12468,27 @@
         <v>0.3</v>
       </c>
       <c r="W47" s="3">
-        <f>U47*L47</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X47" s="3">
-        <f>V47*M47</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>513.77412868278043</v>
       </c>
       <c r="AA47" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB47" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.4757167858173893</v>
       </c>
     </row>
@@ -12415,11 +12509,11 @@
         <v>226.773</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H48">
@@ -12441,31 +12535,31 @@
         <v>1080</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P48" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R48" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>268.80165946705847</v>
       </c>
       <c r="S48" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T48" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.24889042543246154</v>
       </c>
       <c r="U48" s="3">
@@ -12475,27 +12569,27 @@
         <v>0.3</v>
       </c>
       <c r="W48" s="3">
-        <f>U48*L48</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X48" s="3">
-        <f>V48*M48</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z48" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>486.59917026647076</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB48" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.45055478728376924</v>
       </c>
     </row>
@@ -12516,11 +12610,11 @@
         <v>274.33199999999999</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H49">
@@ -12542,31 +12636,31 @@
         <v>1080</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P49" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R49" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>325.17092581878728</v>
       </c>
       <c r="S49" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30108419057295116</v>
       </c>
       <c r="U49" s="3">
@@ -12576,27 +12670,27 @@
         <v>0.3</v>
       </c>
       <c r="W49" s="3">
-        <f>U49*L49</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X49" s="3">
-        <f>V49*M49</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z49" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>458.41453709060636</v>
       </c>
       <c r="AA49" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB49" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.4244579047135244</v>
       </c>
     </row>
@@ -12617,11 +12711,11 @@
         <v>129.10400000000001</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H50">
@@ -12643,31 +12737,31 @@
         <v>1080</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P50" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>244.56340029203997</v>
       </c>
       <c r="S50" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.22644759286299998</v>
       </c>
       <c r="U50" s="3">
@@ -12677,27 +12771,27 @@
         <v>0.3</v>
       </c>
       <c r="W50" s="3">
-        <f>U50*L50</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X50" s="3">
-        <f>V50*M50</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y50" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z50" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>498.71829985398</v>
       </c>
       <c r="AA50" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB50" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.46177620356850002</v>
       </c>
     </row>
@@ -12718,11 +12812,11 @@
         <v>185.059</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H51">
@@ -12744,31 +12838,31 @@
         <v>1080</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P51" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R51" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>219.35665312587642</v>
       </c>
       <c r="S51" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T51" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.20310801215358928</v>
       </c>
       <c r="U51" s="3">
@@ -12778,27 +12872,27 @@
         <v>0.3</v>
       </c>
       <c r="W51" s="3">
-        <f>U51*L51</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X51" s="3">
-        <f>V51*M51</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y51" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z51" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>511.3216734370618</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB51" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.47344599392320535</v>
       </c>
     </row>
@@ -12819,11 +12913,11 @@
         <v>113.032</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H52">
@@ -12845,31 +12939,31 @@
         <v>1080</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P52" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q52" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R52" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>133.86256959020423</v>
       </c>
       <c r="S52" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12394682369463354</v>
       </c>
       <c r="U52" s="3">
@@ -12879,27 +12973,27 @@
         <v>0.3</v>
       </c>
       <c r="W52" s="3">
-        <f>U52*L52</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X52" s="3">
-        <f>V52*M52</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y52" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z52" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>554.0687152048979</v>
       </c>
       <c r="AA52" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB52" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.51302658815268321</v>
       </c>
     </row>
@@ -12920,11 +13014,11 @@
         <v>154.09299999999999</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H53">
@@ -12946,31 +13040,31 @@
         <v>1080</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P53" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q53" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R53" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>182.65096810722997</v>
       </c>
       <c r="S53" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T53" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16912126676595368</v>
       </c>
       <c r="U53" s="3">
@@ -12980,27 +13074,27 @@
         <v>0.3</v>
       </c>
       <c r="W53" s="3">
-        <f>U53*L53</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X53" s="3">
-        <f>V53*M53</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y53" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z53" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>529.67451594638499</v>
       </c>
       <c r="AA53" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB53" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.49043936661702314</v>
       </c>
     </row>
@@ -13021,11 +13115,11 @@
         <v>456.5</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H54">
@@ -13047,31 +13141,31 @@
         <v>1080</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P54" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R54" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>161.68660728403523</v>
       </c>
       <c r="S54" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T54" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14970982155929188</v>
       </c>
       <c r="U54" s="3">
@@ -13081,27 +13175,27 @@
         <v>0.3</v>
       </c>
       <c r="W54" s="3">
-        <f>U54*L54</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X54" s="3">
-        <f>V54*M54</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y54" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z54" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>540.15669635798236</v>
       </c>
       <c r="AA54" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB54" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50014508922035406</v>
       </c>
     </row>
@@ -13122,11 +13216,11 @@
         <v>200</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H55">
@@ -13148,31 +13242,31 @@
         <v>1080</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P55" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>H</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>623.70000000000005</v>
       </c>
       <c r="R55" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>594</v>
       </c>
       <c r="S55" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32484375000000004</v>
       </c>
       <c r="T55" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="U55" s="3">
@@ -13182,27 +13276,27 @@
         <v>0.3</v>
       </c>
       <c r="W55" s="3">
-        <f>U55*L55</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X55" s="3">
-        <f>V55*M55</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>436.95</v>
       </c>
       <c r="Z55" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>324</v>
       </c>
       <c r="AA55" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.22757812499999999</v>
       </c>
       <c r="AB55" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
     </row>
@@ -13223,11 +13317,11 @@
         <v>154.09299999999999</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H56">
@@ -13249,31 +13343,31 @@
         <v>1080</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P56" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>182.65096810722997</v>
       </c>
       <c r="S56" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T56" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16912126676595368</v>
       </c>
       <c r="U56" s="3">
@@ -13283,27 +13377,27 @@
         <v>0.3</v>
       </c>
       <c r="W56" s="3">
-        <f>U56*L56</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X56" s="3">
-        <f>V56*M56</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y56" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z56" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>529.67451594638499</v>
       </c>
       <c r="AA56" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB56" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.49043936661702314</v>
       </c>
     </row>
@@ -13324,11 +13418,11 @@
         <v>205.53700000000001</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H57">
@@ -13350,31 +13444,31 @@
         <v>1080</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P57" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>288.98722036706926</v>
       </c>
       <c r="S57" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T57" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.26758075959913818</v>
       </c>
       <c r="U57" s="3">
@@ -13384,27 +13478,27 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="3">
-        <f>U57*L57</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X57" s="3">
-        <f>V57*M57</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y57" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z57" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>476.50638981646534</v>
       </c>
       <c r="AA57" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB57" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.44120962020043086</v>
       </c>
     </row>
@@ -13425,11 +13519,11 @@
         <v>83.5</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H58">
@@ -13451,31 +13545,31 @@
         <v>1080</v>
       </c>
       <c r="N58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P58" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97.622589316005119</v>
       </c>
       <c r="S58" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T58" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.0391286403708443E-2</v>
       </c>
       <c r="U58" s="3">
@@ -13485,27 +13579,27 @@
         <v>0.3</v>
       </c>
       <c r="W58" s="3">
-        <f>U58*L58</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X58" s="3">
-        <f>V58*M58</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y58" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z58" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>572.18870534199743</v>
       </c>
       <c r="AA58" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB58" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52980435679814575</v>
       </c>
     </row>
@@ -13526,11 +13620,11 @@
         <v>277.25567999999998</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H59">
@@ -13552,31 +13646,31 @@
         <v>1080</v>
       </c>
       <c r="N59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P59" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96.802558695792115</v>
       </c>
       <c r="S59" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T59" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9631998792400108E-2</v>
       </c>
       <c r="U59" s="3">
@@ -13586,27 +13680,27 @@
         <v>0.3</v>
       </c>
       <c r="W59" s="3">
-        <f>U59*L59</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X59" s="3">
-        <f>V59*M59</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y59" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z59" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>572.59872065210391</v>
       </c>
       <c r="AA59" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB59" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53018400060379989</v>
       </c>
     </row>
@@ -13627,11 +13721,11 @@
         <v>98.438000000000002</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H60">
@@ -13653,31 +13747,31 @@
         <v>1080</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P60" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>165.58696337830736</v>
       </c>
       <c r="S60" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T60" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15332126238732163</v>
       </c>
       <c r="U60" s="3">
@@ -13687,27 +13781,27 @@
         <v>0.3</v>
       </c>
       <c r="W60" s="3">
-        <f>U60*L60</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X60" s="3">
-        <f>V60*M60</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z60" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>538.20651831084638</v>
       </c>
       <c r="AA60" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB60" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.49833936880633922</v>
       </c>
     </row>
@@ -13728,11 +13822,11 @@
         <v>154.09299999999999</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H61">
@@ -13754,31 +13848,31 @@
         <v>1080</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P61" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q61" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R61" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>182.65096810722997</v>
       </c>
       <c r="S61" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T61" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16912126676595368</v>
       </c>
       <c r="U61" s="3">
@@ -13788,27 +13882,27 @@
         <v>0.3</v>
       </c>
       <c r="W61" s="3">
-        <f>U61*L61</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X61" s="3">
-        <f>V61*M61</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y61" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z61" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>529.67451594638499</v>
       </c>
       <c r="AA61" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB61" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.49043936661702314</v>
       </c>
     </row>
@@ -13829,11 +13923,11 @@
         <v>121.783</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H62">
@@ -13855,31 +13949,31 @@
         <v>1080</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P62" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q62" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R62" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>144.35424729153362</v>
       </c>
       <c r="S62" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T62" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13366134008475336</v>
       </c>
       <c r="U62" s="3">
@@ -13889,27 +13983,27 @@
         <v>0.3</v>
       </c>
       <c r="W62" s="3">
-        <f>U62*L62</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X62" s="3">
-        <f>V62*M62</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y62" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z62" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>548.82287635423313</v>
       </c>
       <c r="AA62" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB62" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50816932995762332</v>
       </c>
     </row>
@@ -13930,11 +14024,11 @@
         <v>130</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H63">
@@ -13956,31 +14050,31 @@
         <v>1080</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P63" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q63" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R63" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>150.62068965517241</v>
       </c>
       <c r="S63" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T63" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13946360153256704</v>
       </c>
       <c r="U63" s="3">
@@ -13990,27 +14084,27 @@
         <v>0.3</v>
       </c>
       <c r="W63" s="3">
-        <f>U63*L63</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X63" s="3">
-        <f>V63*M63</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y63" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>545.68965517241372</v>
       </c>
       <c r="AA63" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB63" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50526819923371646</v>
       </c>
     </row>
@@ -14031,11 +14125,11 @@
         <v>170.07900000000001</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H64">
@@ -14057,31 +14151,31 @@
         <v>1080</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P64" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q64" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R64" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>201.60035560008396</v>
       </c>
       <c r="S64" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T64" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18666699592600366</v>
       </c>
       <c r="U64" s="3">
@@ -14091,27 +14185,27 @@
         <v>0.3</v>
       </c>
       <c r="W64" s="3">
-        <f>U64*L64</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X64" s="3">
-        <f>V64*M64</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y64" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z64" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>520.19982219995802</v>
       </c>
       <c r="AA64" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB64" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.48166650203699818</v>
       </c>
     </row>
@@ -14132,11 +14226,11 @@
         <v>79.262</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H65">
@@ -14158,31 +14252,31 @@
         <v>1080</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P65" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q65" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R65" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92.410245199839693</v>
       </c>
       <c r="S65" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T65" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.5565041851703424E-2</v>
       </c>
       <c r="U65" s="3">
@@ -14192,27 +14286,27 @@
         <v>0.3</v>
       </c>
       <c r="W65" s="3">
-        <f>U65*L65</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X65" s="3">
-        <f>V65*M65</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y65" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z65" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>574.79487740008017</v>
       </c>
       <c r="AA65" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB65" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53221747907414829</v>
       </c>
     </row>
@@ -14233,11 +14327,11 @@
         <v>89.038544000000002</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H66">
@@ -14259,31 +14353,31 @@
         <v>1080</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P66" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>168.98737288822275</v>
       </c>
       <c r="S66" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T66" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15646978971131736</v>
       </c>
       <c r="U66" s="3">
@@ -14293,27 +14387,27 @@
         <v>0.3</v>
       </c>
       <c r="W66" s="3">
-        <f>U66*L66</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X66" s="3">
-        <f>V66*M66</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y66" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z66" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>536.5063135558886</v>
       </c>
       <c r="AA66" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB66" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.4967651051443413</v>
       </c>
     </row>
@@ -14334,11 +14428,11 @@
         <v>85.117000000000004</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>672</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="H67">
@@ -14360,31 +14454,31 @@
         <v>1080</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>672</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="P67" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="Q67" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>672</v>
       </c>
       <c r="R67" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100.89079543369974</v>
       </c>
       <c r="S67" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35</v>
       </c>
       <c r="T67" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.3417403179351613E-2</v>
       </c>
       <c r="U67" s="3">
@@ -14394,27 +14488,27 @@
         <v>0.3</v>
       </c>
       <c r="W67" s="3">
-        <f>U67*L67</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X67" s="3">
-        <f>V67*M67</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y67" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z67" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>570.55460228315019</v>
       </c>
       <c r="AA67" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.215</v>
       </c>
       <c r="AB67" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52829129841032429</v>
       </c>
     </row>
@@ -14435,11 +14529,11 @@
         <v>159.30199999999999</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" ref="F68:F70" si="30">J68*L68</f>
+        <f t="shared" ref="F68:F70" si="34">J68*L68</f>
         <v>672</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" ref="G68:G70" si="31">K68*M68</f>
+        <f t="shared" ref="G68:G70" si="35">K68*M68</f>
         <v>594</v>
       </c>
       <c r="H68">
@@ -14461,31 +14555,31 @@
         <v>1080</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" ref="N68:N70" si="32">L68*J68</f>
+        <f t="shared" ref="N68:N70" si="36">L68*J68</f>
         <v>672</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" ref="O68:O70" si="33">M68*K68</f>
+        <f t="shared" ref="O68:O70" si="37">M68*K68</f>
         <v>594</v>
       </c>
       <c r="P68" s="3" t="str">
-        <f t="shared" ref="P68:P70" si="34">IF((D68/F68)&gt;(E68/G68),"W","H")</f>
+        <f t="shared" ref="P68:P70" si="38">IF((D68/F68)&gt;(E68/G68),"W","H")</f>
         <v>W</v>
       </c>
       <c r="Q68" s="9">
-        <f t="shared" ref="Q68:Q70" si="35">IF(P68="W",N68,D68*(O68/E68))</f>
+        <f t="shared" ref="Q68:Q70" si="39">IF(P68="W",N68,D68*(O68/E68))</f>
         <v>672</v>
       </c>
       <c r="R68" s="9">
-        <f t="shared" ref="R68:R70" si="36">IF(P68="W",E68*(N68/D68),O68)</f>
+        <f t="shared" ref="R68:R70" si="40">IF(P68="W",E68*(N68/D68),O68)</f>
         <v>140.92993717779262</v>
       </c>
       <c r="S68" s="7">
-        <f t="shared" ref="S68:S70" si="37">Q68/L68</f>
+        <f t="shared" ref="S68:S70" si="41">Q68/L68</f>
         <v>0.35</v>
       </c>
       <c r="T68" s="7">
-        <f t="shared" ref="T68:T70" si="38">R68/M68</f>
+        <f t="shared" ref="T68:T70" si="42">R68/M68</f>
         <v>0.1304906825720302</v>
       </c>
       <c r="U68" s="3">
@@ -14495,27 +14589,27 @@
         <v>0.3</v>
       </c>
       <c r="W68" s="3">
-        <f>U68*L68</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X68" s="3">
-        <f>V68*M68</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y68" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>550.53503141110366</v>
       </c>
       <c r="AA68" s="7">
-        <f t="shared" ref="AA68:AA70" si="39">Y68/L68</f>
+        <f t="shared" ref="AA68:AA70" si="43">Y68/L68</f>
         <v>0.215</v>
       </c>
       <c r="AB68" s="8">
-        <f t="shared" ref="AB68:AB70" si="40">Z68/M68</f>
+        <f t="shared" ref="AB68:AB70" si="44">Z68/M68</f>
         <v>0.50975465871398484</v>
       </c>
     </row>
@@ -14536,11 +14630,11 @@
         <v>98.441000000000003</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>672</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>594</v>
       </c>
       <c r="H69">
@@ -14562,31 +14656,31 @@
         <v>1080</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>672</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>594</v>
       </c>
       <c r="P69" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>W</v>
       </c>
       <c r="Q69" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>672</v>
       </c>
       <c r="R69" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>116.6854262173923</v>
       </c>
       <c r="S69" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.35</v>
       </c>
       <c r="T69" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.10804206131240028</v>
       </c>
       <c r="U69" s="3">
@@ -14596,27 +14690,27 @@
         <v>0.3</v>
       </c>
       <c r="W69" s="3">
-        <f>U69*L69</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X69" s="3">
-        <f>V69*M69</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y69" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>562.65728689130378</v>
       </c>
       <c r="AA69" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.215</v>
       </c>
       <c r="AB69" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.52097896934379984</v>
       </c>
     </row>
@@ -14637,11 +14731,11 @@
         <v>87.963999999999999</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>672</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>594</v>
       </c>
       <c r="H70">
@@ -14663,31 +14757,31 @@
         <v>1080</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>672</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>594</v>
       </c>
       <c r="P70" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>W</v>
       </c>
       <c r="Q70" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>672</v>
       </c>
       <c r="R70" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>104.2666859518564</v>
       </c>
       <c r="S70" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.35</v>
       </c>
       <c r="T70" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>9.6543227733200371E-2</v>
       </c>
       <c r="U70" s="3">
@@ -14697,28 +14791,129 @@
         <v>0.3</v>
       </c>
       <c r="W70" s="3">
-        <f>U70*L70</f>
+        <f t="shared" si="32"/>
         <v>412.8</v>
       </c>
       <c r="X70" s="3">
-        <f>V70*M70</f>
+        <f t="shared" si="33"/>
         <v>324</v>
       </c>
       <c r="Y70" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.8</v>
       </c>
       <c r="Z70" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>568.86665702407186</v>
       </c>
       <c r="AA70" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.215</v>
       </c>
       <c r="AB70" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.5267283861333999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1444</v>
+      </c>
+      <c r="E71" s="6">
+        <v>424</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" ref="F71" si="45">J71*L71</f>
+        <v>672</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" ref="G71" si="46">K71*M71</f>
+        <v>594</v>
+      </c>
+      <c r="H71">
+        <v>0.185</v>
+      </c>
+      <c r="I71">
+        <v>0.3</v>
+      </c>
+      <c r="J71">
+        <v>0.35</v>
+      </c>
+      <c r="K71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L71">
+        <v>1920</v>
+      </c>
+      <c r="M71">
+        <v>1080</v>
+      </c>
+      <c r="N71" s="3">
+        <f t="shared" ref="N71" si="47">L71*J71</f>
+        <v>672</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" ref="O71" si="48">M71*K71</f>
+        <v>594</v>
+      </c>
+      <c r="P71" s="3" t="str">
+        <f t="shared" ref="P71" si="49">IF((D71/F71)&gt;(E71/G71),"W","H")</f>
+        <v>W</v>
+      </c>
+      <c r="Q71" s="9">
+        <f t="shared" ref="Q71" si="50">IF(P71="W",N71,D71*(O71/E71))</f>
+        <v>672</v>
+      </c>
+      <c r="R71" s="9">
+        <f t="shared" ref="R71" si="51">IF(P71="W",E71*(N71/D71),O71)</f>
+        <v>197.31855955678671</v>
+      </c>
+      <c r="S71" s="7">
+        <f t="shared" ref="S71" si="52">Q71/L71</f>
+        <v>0.35</v>
+      </c>
+      <c r="T71" s="7">
+        <f t="shared" ref="T71" si="53">R71/M71</f>
+        <v>0.1827023699599877</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="W71" s="3">
+        <f t="shared" ref="W71" si="54">U71*L71</f>
+        <v>412.8</v>
+      </c>
+      <c r="X71" s="3">
+        <f t="shared" ref="X71" si="55">V71*M71</f>
+        <v>324</v>
+      </c>
+      <c r="Y71" s="3">
+        <f t="shared" ref="Y71" si="56">((N71-Q71)/2)+W71</f>
+        <v>412.8</v>
+      </c>
+      <c r="Z71" s="3">
+        <f t="shared" ref="Z71" si="57">((O71-R71)/2)+X71</f>
+        <v>522.34072022160672</v>
+      </c>
+      <c r="AA71" s="7">
+        <f t="shared" ref="AA71" si="58">Y71/L71</f>
+        <v>0.215</v>
+      </c>
+      <c r="AB71" s="8">
+        <f t="shared" ref="AB71" si="59">Z71/M71</f>
+        <v>0.48364881502000623</v>
       </c>
     </row>
   </sheetData>
@@ -14728,10 +14923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2892EC89-B041-4FB0-B650-95E2119CA57C}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20501,7 +20696,7 @@
         <v>151</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B70" si="4">LEFT(A67,LEN(A67)-4)</f>
+        <f t="shared" ref="B67:B71" si="4">LEFT(A67,LEN(A67)-4)</f>
         <v>./wonderswancolor/</v>
       </c>
       <c r="C67" t="str">
@@ -20558,7 +20753,7 @@
         <v>0.215</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F70" si="6">" "</f>
+        <f t="shared" ref="F67:F71" si="6">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G67" s="1">
@@ -20573,7 +20768,7 @@
         <v>0.65</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" ref="J67:J70" si="7">" "</f>
+        <f t="shared" ref="J67:J71" si="7">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K67" s="1">
@@ -20847,6 +21042,94 @@
         <v>242</v>
       </c>
     </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" ref="B71" si="9">LEFT(A71,LEN(A71)-4)</f>
+        <v>./ti99/</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" ref="C71" si="10">"mkdir "&amp;B71&amp;"; "&amp;D71&amp;E71&amp;F71&amp;G71&amp;H71&amp;I71&amp;J71&amp;K71&amp;L71&amp;" | add-content -path "&amp;B71&amp;"theme.xml"</f>
+        <v>mkdir ./ti99/; '&lt;theme&gt;
+	&lt;formatVersion&gt;4&lt;/formatVersion&gt;
+	&lt;include&gt;./../theme.xml&lt;/include&gt;
+	&lt;view name="system"&gt;
+		&lt;image name="logo"&gt;
+			&lt;path&gt;./_inc/system.png&lt;/path&gt;
+		&lt;/image&gt;
+	&lt;/view&gt;
+	&lt;view name="detailed, video, basic"&gt;
+                &lt;image name="crtv" extra="true"&gt;
+                   &lt;origin&gt;0 0&lt;/origin&gt;
+                   &lt;pos&gt;0 0&lt;/pos&gt;
+                   &lt;size&gt;1 1&lt;/size&gt;
+                   &lt;path&gt;./_inc/crtv.png&lt;/path&gt;
+                &lt;/image&gt;
+				&lt;image name="logo2" extra="true"&gt;
+					&lt;path&gt;./_inc/system.png&lt;/path&gt;
+					&lt;origin&gt;0 0&lt;/origin&gt;
+					&lt;pos&gt;0.008 0.095&lt;/pos&gt;
+				&lt;/image&gt;
+	&lt;/view&gt;
+	&lt;view name="system"&gt;
+				&lt;image name="grid-s3" extra="true"&gt;
+					&lt;origin&gt;0 0&lt;/origin&gt;
+					&lt;pos&gt;0.645 0.1&lt;/pos&gt;
+					&lt;path&gt;./../_inc/images/grid3-full.png&lt;/path&gt;
+				&lt;/image&gt;
+				&lt;image name="decal" extra="true"&gt;
+                   &lt;origin&gt;0 0&lt;/origin&gt;
+                   &lt;pos&gt;0.215 0.483648815020006&lt;/pos&gt;
+                   &lt;maxSize&gt;.35 .55&lt;/maxSize&gt;
+                   &lt;path&gt;./_inc/logo.svg&lt;/path&gt;
+				   &lt;default&gt;./../_inc/images/nologo.png&lt;/default&gt;
+                &lt;/image&gt;
+				&lt;image name="console" extra="true"&gt;
+                   &lt;origin&gt;0 0&lt;/origin&gt;
+                   &lt;pos&gt;0.65 0.333333333333333&lt;/pos&gt;
+                   &lt;maxSize&gt;.3 .72&lt;/maxSize&gt;
+                   &lt;path&gt;./_inc/console.png&lt;/path&gt;
+				   &lt;default&gt;./../_inc/images/noconsole.png&lt;/default&gt;
+                &lt;/image&gt;			
+	&lt;/view&gt;
+&lt;/theme&gt;' | add-content -path ./ti99/theme.xml</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" s="1">
+        <f>VLOOKUP($A71,Logo!$A$2:$AB$75,27,FALSE)</f>
+        <v>0.215</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G71" s="1">
+        <f>VLOOKUP($A71,Logo!$A$2:$AB$75,28,FALSE)</f>
+        <v>0.48364881502000623</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="I71" s="1">
+        <f>VLOOKUP($A71,Table1[#All],25,FALSE)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K71" s="1">
+        <f>IF(ISNA(VLOOKUP($A71,Table1[#All],26,FALSE)),0.125,VLOOKUP($A71,Table1[#All],26,FALSE))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/_inc/rPi Image Calc.xlsx
+++ b/_inc/rPi Image Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3561bc190766037/Documents/GitHub/es-theme-lcars-p42/_inc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{AF55BB7B-F6E1-424F-9789-2028D2B6E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE4DC03-2118-40B1-879E-F7603AB8773A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{AF55BB7B-F6E1-424F-9789-2028D2B6E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB6A66F6-00DC-4A39-965F-9B20197365EB}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="600" windowWidth="30825" windowHeight="14685" activeTab="2" xr2:uid="{A86ACF5D-6064-4CD1-A4E0-684510D1610D}"/>
+    <workbookView xWindow="15690" yWindow="105" windowWidth="20775" windowHeight="15300" xr2:uid="{A86ACF5D-6064-4CD1-A4E0-684510D1610D}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="247">
   <si>
     <t>offset x</t>
   </si>
@@ -992,8 +992,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}" name="Table1" displayName="Table1" ref="A1:Z70" totalsRowShown="0">
-  <autoFilter ref="A1:Z70" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}" name="Table1" displayName="Table1" ref="A1:Z71" totalsRowShown="0">
+  <autoFilter ref="A1:Z71" xr:uid="{7AE609B2-8D23-4007-87FC-F6A17EB7F45A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z69">
     <sortCondition ref="B1:B69"/>
   </sortState>
@@ -1348,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E10464-F5E2-4F56-88E9-27E3734992E5}">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
+      <selection activeCell="Y71" sqref="Y71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7731,6 +7731,97 @@
       <c r="Z70" s="1">
         <f t="shared" ref="Z70" si="27">X70/M70</f>
         <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71">
+        <v>434</v>
+      </c>
+      <c r="E71" s="4">
+        <v>777</v>
+      </c>
+      <c r="F71">
+        <v>600</v>
+      </c>
+      <c r="G71">
+        <v>874</v>
+      </c>
+      <c r="H71">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="I71">
+        <v>0.1</v>
+      </c>
+      <c r="J71">
+        <v>0.3</v>
+      </c>
+      <c r="K71">
+        <v>0.72</v>
+      </c>
+      <c r="L71">
+        <v>1920</v>
+      </c>
+      <c r="M71">
+        <v>1080</v>
+      </c>
+      <c r="N71" s="5">
+        <f t="shared" ref="N71" si="28">ROUNDDOWN(J71*L71,0)</f>
+        <v>576</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" ref="O71" si="29">ROUNDDOWN(M71*K71,0)</f>
+        <v>777</v>
+      </c>
+      <c r="P71" s="5" t="str">
+        <f t="shared" ref="P71" si="30">IF(D71&gt;E71,"W","H")</f>
+        <v>H</v>
+      </c>
+      <c r="Q71" s="1">
+        <f>Table1[[#This Row],[Width]]/L71</f>
+        <v>0.22604166666666667</v>
+      </c>
+      <c r="R71" s="1">
+        <f>Table1[[#This Row],[Height]]/M71</f>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="S71">
+        <v>0.65</v>
+      </c>
+      <c r="T71">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="U71" s="5">
+        <f t="shared" ref="U71" si="31">S71*L71</f>
+        <v>1248</v>
+      </c>
+      <c r="V71" s="5">
+        <f t="shared" ref="V71" si="32">T71*M71</f>
+        <v>148.5</v>
+      </c>
+      <c r="W71" s="5">
+        <f>((N71-Table1[[#This Row],[Width]])/2)+U71</f>
+        <v>1319</v>
+      </c>
+      <c r="X71" s="5">
+        <f>((O71-Table1[[#This Row],[Height]])/2)+V71</f>
+        <v>148.5</v>
+      </c>
+      <c r="Y71" s="5">
+        <f t="shared" ref="Y71" si="33">W71/L71</f>
+        <v>0.6869791666666667</v>
+      </c>
+      <c r="Z71" s="1">
+        <f t="shared" ref="Z71" si="34">X71/M71</f>
+        <v>0.13750000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14925,7 +15016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2892EC89-B041-4FB0-B650-95E2119CA57C}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
@@ -20696,7 +20787,7 @@
         <v>151</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B71" si="4">LEFT(A67,LEN(A67)-4)</f>
+        <f t="shared" ref="B67:B70" si="4">LEFT(A67,LEN(A67)-4)</f>
         <v>./wonderswancolor/</v>
       </c>
       <c r="C67" t="str">
